--- a/biology/Zoologie/Chionis/Chionis.xlsx
+++ b/biology/Zoologie/Chionis/Chionis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chionidae
 Chionis est un genre constitué de deux espèces d'oiseaux appelés becs-en-fourreaux. C'est le seul genre de la famille des Chionidae (en français : chionidés).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux côtiers trapus (de 34 à 41 cm), à l'aspect de pigeons, ont de fortes pattes et un bec en fourreau  caractéristique. La rhamphotèque de celui-ci est facilement identifiable car il possède des pièces cornées supplémentaires sous lesquelles s'ouvrent les narines. Leur plumage est blanchâtre. Les deux espèces se différencient par la couleur de leur bec.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve sur la péninsule Antarctique, en Patagonie, et sur les îles sub-antarctiques des océans Atlantique et Indien. Ils sont très curieux et opportunistes. Ils n'ont pas peur de l'homme.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chionis sont des prédateurs et des opportunistes. Ils peuvent se nourrir de tous les restes d'animaux laissés à leur disposition mais aussi s'attaquer aux œufs et aux poussins d'autres espèces (comme les manchots). 
 </t>
@@ -605,11 +623,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette famille a un temps été appelée Chionididae.
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a un temps été appelée Chionididae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chionis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chionis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Chionis albus – Chionis blanc
 Chionis minor – Petit Chionis</t>
         </is>
